--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.14</v>
+        <v>1.48</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>26/08/2023 19:58</t>
+          <t>26/08/2023 18:05</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.23</v>
+        <v>4.1</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>2.89</v>
+        <v>4.06</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>26/08/2023 19:25</t>
+          <t>26/08/2023 18:05</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.3</v>
+        <v>6.27</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.28</v>
+        <v>6.67</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>26/08/2023 19:58</t>
+          <t>26/08/2023 18:05</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-jedinstvo/6ssIR0ZA/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-arsenal-tivat/OIyNQKlH/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.48</v>
+        <v>2.14</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>26/08/2023 18:05</t>
+          <t>26/08/2023 19:58</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.1</v>
+        <v>3.23</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.06</v>
+        <v>2.89</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>26/08/2023 18:05</t>
+          <t>26/08/2023 19:25</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>6.27</v>
+        <v>4.3</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>6.67</v>
+        <v>3.28</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>26/08/2023 18:05</t>
+          <t>26/08/2023 19:58</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-arsenal-tivat/OIyNQKlH/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-jedinstvo/6ssIR0ZA/</t>
         </is>
       </c>
     </row>
@@ -5514,6 +5514,98 @@
       <c r="V55" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-petrovac/8ruwllnr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Arsenal Tivat</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Sutjeska</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:33</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-sutjeska/UHVcqQ0D/</t>
         </is>
       </c>
     </row>

--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Arsenal Tivat</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Rudar</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
       <c r="J28" t="n">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>26/08/2023 19:54</t>
+          <t>26/08/2023 18:05</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.54</v>
+        <v>4.06</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>26/08/2023 19:58</t>
+          <t>26/08/2023 18:05</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5.09</v>
+        <v>6.27</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>6.07</v>
+        <v>6.67</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>26/08/2023 19:58</t>
+          <t>26/08/2023 18:05</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-rudar/6u2b7Wmd/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-arsenal-tivat/OIyNQKlH/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.48</v>
+        <v>2.14</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>26/08/2023 18:05</t>
+          <t>26/08/2023 19:58</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.1</v>
+        <v>3.23</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.06</v>
+        <v>2.89</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>26/08/2023 18:05</t>
+          <t>26/08/2023 19:25</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>6.27</v>
+        <v>4.3</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>6.67</v>
+        <v>3.28</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>26/08/2023 18:05</t>
+          <t>26/08/2023 19:58</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-arsenal-tivat/OIyNQKlH/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-jedinstvo/6ssIR0ZA/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,39 +3172,39 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.14</v>
+        <v>1.57</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>26/08/2023 19:54</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>25/08/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>26/08/2023 19:58</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="O30" t="inlineStr">
+      <c r="R30" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>25/08/2023 08:13</t>
         </is>
       </c>
-      <c r="P30" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>26/08/2023 19:25</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>25/08/2023 08:13</t>
-        </is>
-      </c>
       <c r="T30" t="n">
-        <v>3.28</v>
+        <v>6.07</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-jedinstvo/6ssIR0ZA/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-rudar/6u2b7Wmd/</t>
         </is>
       </c>
     </row>
@@ -5606,6 +5606,282 @@
       <c r="V56" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-sutjeska/UHVcqQ0D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45206.75</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Jedinstvo</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Jezero</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>06/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:33</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>06/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:33</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>06/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:33</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-jezero/GERgp6o7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45206.79166666666</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Mornar Bar</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Mladost DG</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:33</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:33</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:33</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-mladost-dg/nZwsm81l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45206.79166666666</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Petrovac</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Decic</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:54</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-decic/fawonSGf/</t>
         </is>
       </c>
     </row>

--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>11/08/2023 17:42</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.67</v>
+        <v>2.64</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 20:25</t>
+          <t>12/08/2023 20:14</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.27</v>
+        <v>2.87</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>11/08/2023 17:42</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.68</v>
+        <v>2.89</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 20:25</t>
+          <t>12/08/2023 18:34</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.91</v>
+        <v>3.03</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>11/08/2023 17:42</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5.01</v>
+        <v>2.89</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 20:25</t>
+          <t>12/08/2023 20:14</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-rudar/UeGmCLZN/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-arsenal-tivat/v7NzFNk5/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Arsenal Tivat</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
       <c r="J17" t="n">
-        <v>2.5</v>
+        <v>1.84</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>11/08/2023 17:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.64</v>
+        <v>1.67</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 20:14</t>
+          <t>12/08/2023 20:25</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.87</v>
+        <v>3.27</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>11/08/2023 17:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.89</v>
+        <v>3.68</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 18:34</t>
+          <t>12/08/2023 20:25</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.03</v>
+        <v>3.91</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>11/08/2023 17:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.89</v>
+        <v>5.01</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 20:14</t>
+          <t>12/08/2023 20:25</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-arsenal-tivat/v7NzFNk5/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-rudar/UeGmCLZN/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.06</v>
+        <v>2.53</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>02/09/2023 06:12</t>
+          <t>02/09/2023 05:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.43</v>
+        <v>2.66</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>03/09/2023 16:46</t>
+          <t>03/09/2023 16:41</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>02/09/2023 06:12</t>
+          <t>02/09/2023 05:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>2.98</v>
+        <v>2.87</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>03/09/2023 16:11</t>
+          <t>03/09/2023 16:41</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.31</v>
+        <v>2.73</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>02/09/2023 06:12</t>
+          <t>02/09/2023 05:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.09</v>
+        <v>2.88</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>03/09/2023 16:46</t>
+          <t>03/09/2023 16:41</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-mornar-bar/8ptsWFQd/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-petrovac/f1rgTDAF/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.53</v>
+        <v>3.06</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>02/09/2023 05:42</t>
+          <t>02/09/2023 06:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.66</v>
+        <v>2.43</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>03/09/2023 16:41</t>
+          <t>03/09/2023 16:46</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>02/09/2023 05:42</t>
+          <t>02/09/2023 06:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>2.87</v>
+        <v>2.98</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>03/09/2023 16:41</t>
+          <t>03/09/2023 16:11</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.73</v>
+        <v>2.31</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>02/09/2023 05:42</t>
+          <t>02/09/2023 06:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>03/09/2023 16:41</t>
+          <t>03/09/2023 16:46</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-petrovac/f1rgTDAF/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-mornar-bar/8ptsWFQd/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Mladost DG</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>1.83</v>
+        <v>2.77</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.9</v>
+        <v>3.71</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>07/10/2023 18:33</t>
+          <t>07/10/2023 18:54</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.04</v>
+        <v>2.78</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.08</v>
+        <v>2.77</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>07/10/2023 18:33</t>
+          <t>07/10/2023 18:54</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.16</v>
+        <v>2.54</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.53</v>
+        <v>2.27</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>07/10/2023 18:33</t>
+          <t>07/10/2023 18:54</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-mladost-dg/nZwsm81l/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-decic/fawonSGf/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Mladost DG</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.77</v>
+        <v>1.83</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.71</v>
+        <v>1.9</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>07/10/2023 18:54</t>
+          <t>07/10/2023 18:33</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2.78</v>
+        <v>3.04</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.77</v>
+        <v>3.08</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>07/10/2023 18:54</t>
+          <t>07/10/2023 18:33</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.54</v>
+        <v>4.16</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,108 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.27</v>
+        <v>4.53</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>07/10/2023 18:54</t>
+          <t>07/10/2023 18:33</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-decic/fawonSGf/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-mladost-dg/nZwsm81l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45207.72916666666</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-rudar/YkxkonW0/</t>
         </is>
       </c>
     </row>

--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Arsenal Tivat</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v>1.84</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>11/08/2023 17:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.64</v>
+        <v>1.67</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 20:14</t>
+          <t>12/08/2023 20:25</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.87</v>
+        <v>3.27</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>11/08/2023 17:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.89</v>
+        <v>3.68</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 18:34</t>
+          <t>12/08/2023 20:25</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.03</v>
+        <v>3.91</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>11/08/2023 17:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.89</v>
+        <v>5.01</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 20:14</t>
+          <t>12/08/2023 20:25</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-arsenal-tivat/v7NzFNk5/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-rudar/UeGmCLZN/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>11/08/2023 17:42</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.67</v>
+        <v>2.64</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 20:25</t>
+          <t>12/08/2023 20:14</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.27</v>
+        <v>2.87</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>11/08/2023 17:42</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.68</v>
+        <v>2.89</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 20:25</t>
+          <t>12/08/2023 18:34</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.91</v>
+        <v>3.03</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>11/08/2023 17:42</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>5.01</v>
+        <v>2.89</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 20:25</t>
+          <t>12/08/2023 20:14</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-rudar/UeGmCLZN/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-arsenal-tivat/v7NzFNk5/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>3.11</v>
+        <v>1.41</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.82</v>
+        <v>1.51</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.92</v>
+        <v>4.18</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2.79</v>
+        <v>3.88</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.22</v>
+        <v>7.18</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.79</v>
+        <v>6.55</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-buducnost/212AhUwR/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-mornar-bar/Gp0beWg8/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Mornar Bar</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
       <c r="J54" t="n">
-        <v>1.41</v>
+        <v>3.11</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.51</v>
+        <v>2.82</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.18</v>
+        <v>2.92</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.88</v>
+        <v>2.79</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>7.18</v>
+        <v>2.22</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>6.55</v>
+        <v>2.79</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-mornar-bar/Gp0beWg8/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-buducnost/212AhUwR/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Mladost DG</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.77</v>
+        <v>1.83</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.71</v>
+        <v>1.9</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>07/10/2023 18:54</t>
+          <t>07/10/2023 18:33</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>2.78</v>
+        <v>3.04</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2.77</v>
+        <v>3.08</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>07/10/2023 18:54</t>
+          <t>07/10/2023 18:33</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.54</v>
+        <v>4.16</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.27</v>
+        <v>4.53</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>07/10/2023 18:54</t>
+          <t>07/10/2023 18:33</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-decic/fawonSGf/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-mladost-dg/nZwsm81l/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Mladost DG</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>1.83</v>
+        <v>2.77</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.9</v>
+        <v>3.71</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>07/10/2023 18:33</t>
+          <t>07/10/2023 18:54</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.04</v>
+        <v>2.78</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.08</v>
+        <v>2.77</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>07/10/2023 18:33</t>
+          <t>07/10/2023 18:54</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.16</v>
+        <v>2.54</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.53</v>
+        <v>2.27</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>07/10/2023 18:33</t>
+          <t>07/10/2023 18:54</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-mladost-dg/nZwsm81l/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-decic/fawonSGf/</t>
         </is>
       </c>
     </row>
@@ -5974,6 +5974,374 @@
       <c r="V60" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-rudar/YkxkonW0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Petrovac</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:44</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:44</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:44</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-petrovac/tdaG17Gs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Arsenal Tivat</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Mornar Bar</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-mornar-bar/rLJu89wE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sutjeska</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Jedinstvo</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-jedinstvo/MBIq7ThK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Decic</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Mladost DG</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:19</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:19</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:19</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:19</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:19</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:19</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-mladost-dg/zJbK0RVm/</t>
         </is>
       </c>
     </row>

--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Mornar Bar</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
       <c r="J52" t="n">
-        <v>1.41</v>
+        <v>3.11</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.51</v>
+        <v>2.82</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.18</v>
+        <v>2.92</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.88</v>
+        <v>2.79</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>7.18</v>
+        <v>2.22</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>6.55</v>
+        <v>2.79</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-mornar-bar/Gp0beWg8/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-buducnost/212AhUwR/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>3.11</v>
+        <v>1.41</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.82</v>
+        <v>1.51</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.92</v>
+        <v>4.18</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2.79</v>
+        <v>3.88</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.22</v>
+        <v>7.18</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.79</v>
+        <v>6.55</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-buducnost/212AhUwR/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-mornar-bar/Gp0beWg8/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.77</v>
+        <v>2.29</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:44</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>2.69</v>
+        <v>2.49</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:44</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.46</v>
+        <v>3.2</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.04</v>
+        <v>3.32</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:44</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-petrovac/tdaG17Gs/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-mornar-bar/rLJu89wE/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.29</v>
+        <v>2.77</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:44</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2.49</v>
+        <v>2.69</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:44</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.2</v>
+        <v>2.46</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.32</v>
+        <v>3.04</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:44</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-mornar-bar/rLJu89wE/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-petrovac/tdaG17Gs/</t>
         </is>
       </c>
     </row>
@@ -6342,6 +6342,98 @@
       <c r="V64" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-mladost-dg/zJbK0RVm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45221.75</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Jezero</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>21/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:52</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>21/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:52</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>21/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:52</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-buducnost/vmDl6m8Q/</t>
         </is>
       </c>
     </row>

--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mladost DG</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,63 +2053,63 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.64</v>
+        <v>5.84</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.16</v>
+        <v>4.16</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:49</t>
+          <t>13/08/2023 19:20</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.99</v>
+        <v>3.85</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2.89</v>
+        <v>3.62</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:39</t>
+          <t>13/08/2023 19:20</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.75</v>
+        <v>1.48</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.36</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:49</t>
+          <t>13/08/2023 19:20</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-decic/8nFiBukU/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-sutjeska/YTMvEs5B/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Mladost DG</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,63 +2145,63 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>5.84</v>
+        <v>2.64</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4.16</v>
+        <v>3.16</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:49</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.85</v>
+        <v>2.99</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.62</v>
+        <v>2.89</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:39</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.48</v>
+        <v>2.75</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.8</v>
+        <v>2.36</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:49</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-sutjeska/YTMvEs5B/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-decic/8nFiBukU/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.53</v>
+        <v>3.06</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>02/09/2023 05:42</t>
+          <t>02/09/2023 06:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.66</v>
+        <v>2.43</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>03/09/2023 16:41</t>
+          <t>03/09/2023 16:46</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>02/09/2023 05:42</t>
+          <t>02/09/2023 06:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>2.87</v>
+        <v>2.98</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>03/09/2023 16:41</t>
+          <t>03/09/2023 16:11</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.73</v>
+        <v>2.31</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>02/09/2023 05:42</t>
+          <t>02/09/2023 06:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>03/09/2023 16:41</t>
+          <t>03/09/2023 16:46</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-petrovac/f1rgTDAF/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-mornar-bar/8ptsWFQd/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.06</v>
+        <v>2.53</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>02/09/2023 06:12</t>
+          <t>02/09/2023 05:42</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.43</v>
+        <v>2.66</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>03/09/2023 16:46</t>
+          <t>03/09/2023 16:41</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>02/09/2023 06:12</t>
+          <t>02/09/2023 05:42</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>2.98</v>
+        <v>2.87</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>03/09/2023 16:11</t>
+          <t>03/09/2023 16:41</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.31</v>
+        <v>2.73</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>02/09/2023 06:12</t>
+          <t>02/09/2023 05:42</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.09</v>
+        <v>2.88</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>03/09/2023 16:46</t>
+          <t>03/09/2023 16:41</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-mornar-bar/8ptsWFQd/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-petrovac/f1rgTDAF/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>3.11</v>
+        <v>1.41</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.82</v>
+        <v>1.51</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.92</v>
+        <v>4.18</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2.79</v>
+        <v>3.88</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.22</v>
+        <v>7.18</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.79</v>
+        <v>6.55</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-buducnost/212AhUwR/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-mornar-bar/Gp0beWg8/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Jezero</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.08</v>
+        <v>3.11</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.41</v>
+        <v>2.82</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 17:50</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 17:50</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.55</v>
+        <v>2.22</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.3</v>
+        <v>2.79</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 17:50</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-arsenal-tivat/fya2fj9E/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-buducnost/212AhUwR/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Jezero</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.41</v>
+        <v>2.08</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.51</v>
+        <v>2.41</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:50</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.18</v>
+        <v>2.84</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.88</v>
+        <v>2.84</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:50</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>7.18</v>
+        <v>3.55</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>6.55</v>
+        <v>3.3</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:50</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-mornar-bar/Gp0beWg8/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-arsenal-tivat/fya2fj9E/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.29</v>
+        <v>1.29</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.72</v>
+        <v>1.42</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>2.75</v>
+        <v>4.78</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>2.49</v>
+        <v>4.4</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.2</v>
+        <v>7.52</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.32</v>
+        <v>7.13</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-mornar-bar/rLJu89wE/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-jedinstvo/MBIq7ThK/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,14 +6193,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>1.29</v>
+        <v>2.29</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.42</v>
+        <v>2.72</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.78</v>
+        <v>2.75</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.4</v>
+        <v>2.49</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>7.52</v>
+        <v>3.2</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>7.13</v>
+        <v>3.32</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-jedinstvo/MBIq7ThK/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-mornar-bar/rLJu89wE/</t>
         </is>
       </c>
     </row>
@@ -6434,6 +6434,466 @@
       <c r="V65" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-buducnost/vmDl6m8Q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Jedinstvo</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Arsenal Tivat</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:00</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:00</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:00</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-arsenal-tivat/2q9vd3pJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Petrovac</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Jezero</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>27/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:45</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>27/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:45</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>27/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:45</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-jezero/fJ5WcPF6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45227.70833333334</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Mornar Bar</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Decic</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:07</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-decic/Y3HNaoof/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45227.70833333334</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Mladost DG</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-rudar/GS6Sb500/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45227.77083333334</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Sutjeska</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>27/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>27/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>27/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-sutjeska/OhAzcqVC/</t>
         </is>
       </c>
     </row>

--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Mornar Bar</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
       <c r="J52" t="n">
-        <v>1.41</v>
+        <v>3.11</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.51</v>
+        <v>2.82</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.18</v>
+        <v>2.92</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.88</v>
+        <v>2.79</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>7.18</v>
+        <v>2.22</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>6.55</v>
+        <v>2.79</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-mornar-bar/Gp0beWg8/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-buducnost/212AhUwR/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Jezero</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>3.11</v>
+        <v>2.08</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.82</v>
+        <v>2.41</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:50</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:50</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.22</v>
+        <v>3.55</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.79</v>
+        <v>3.3</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:50</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-buducnost/212AhUwR/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-arsenal-tivat/fya2fj9E/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Jezero</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.08</v>
+        <v>1.41</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.41</v>
+        <v>1.51</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:50</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.84</v>
+        <v>4.18</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2.84</v>
+        <v>3.88</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:50</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.55</v>
+        <v>7.18</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.3</v>
+        <v>6.55</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:50</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-arsenal-tivat/fya2fj9E/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-mornar-bar/Gp0beWg8/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>1.29</v>
+        <v>2.29</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.42</v>
+        <v>2.72</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.78</v>
+        <v>2.75</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>4.4</v>
+        <v>2.49</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>7.52</v>
+        <v>3.2</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>7.13</v>
+        <v>3.32</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-jedinstvo/MBIq7ThK/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-mornar-bar/rLJu89wE/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,14 +6193,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.29</v>
+        <v>1.29</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.72</v>
+        <v>1.42</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.75</v>
+        <v>4.78</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2.49</v>
+        <v>4.4</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.2</v>
+        <v>7.52</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.32</v>
+        <v>7.13</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-mornar-bar/rLJu89wE/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-jedinstvo/MBIq7ThK/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Mladost DG</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>3.11</v>
+        <v>2.17</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4.89</v>
+        <v>1.53</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:07</t>
+          <t>28/10/2023 16:54</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.5</v>
+        <v>3.93</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:55</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.3</v>
+        <v>3.15</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.65</v>
+        <v>5.06</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:29</t>
+          <t>28/10/2023 16:55</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-decic/Y3HNaoof/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-rudar/GS6Sb500/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Mladost DG</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.17</v>
+        <v>3.11</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.53</v>
+        <v>4.89</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:54</t>
+          <t>28/10/2023 16:07</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.93</v>
+        <v>3.5</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:55</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.15</v>
+        <v>2.3</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>5.06</v>
+        <v>1.65</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:55</t>
+          <t>28/10/2023 16:29</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-rudar/GS6Sb500/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-decic/Y3HNaoof/</t>
         </is>
       </c>
     </row>
@@ -6894,6 +6894,98 @@
       <c r="V70" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-sutjeska/OhAzcqVC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Jezero</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Mladost DG</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:45</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:45</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:45</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-mladost-dg/lvEb1bMb/</t>
         </is>
       </c>
     </row>

--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>11/08/2023 17:42</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.67</v>
+        <v>2.64</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 20:25</t>
+          <t>12/08/2023 20:14</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.27</v>
+        <v>2.87</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>11/08/2023 17:42</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.68</v>
+        <v>2.89</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 20:25</t>
+          <t>12/08/2023 18:34</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.91</v>
+        <v>3.03</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>11/08/2023 17:42</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5.01</v>
+        <v>2.89</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 20:25</t>
+          <t>12/08/2023 20:14</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-rudar/UeGmCLZN/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-arsenal-tivat/v7NzFNk5/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Arsenal Tivat</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
       <c r="J17" t="n">
-        <v>2.5</v>
+        <v>1.84</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>11/08/2023 17:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.64</v>
+        <v>1.67</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 20:14</t>
+          <t>12/08/2023 20:25</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.87</v>
+        <v>3.27</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>11/08/2023 17:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.89</v>
+        <v>3.68</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 18:34</t>
+          <t>12/08/2023 20:25</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.03</v>
+        <v>3.91</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>11/08/2023 17:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.89</v>
+        <v>5.01</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 20:14</t>
+          <t>12/08/2023 20:25</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-arsenal-tivat/v7NzFNk5/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-rudar/UeGmCLZN/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Jezero</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>5.84</v>
+        <v>1.48</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.16</v>
+        <v>1.47</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.62</v>
+        <v>3.91</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.48</v>
+        <v>5.58</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>7.31</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-sutjeska/YTMvEs5B/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jezero/nXQrD1KH/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Jezero</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>12/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>13/08/2023 19:20</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>12/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>13/08/2023 19:20</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>1.48</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>12/08/2023 09:12</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>13/08/2023 19:59</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>12/08/2023 09:12</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>13/08/2023 19:59</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>5.58</v>
-      </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>12/08/2023 09:12</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>7.31</v>
+        <v>1.8</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>13/08/2023 19:59</t>
+          <t>13/08/2023 19:20</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jezero/nXQrD1KH/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-sutjeska/YTMvEs5B/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>26/08/2023 18:05</t>
+          <t>26/08/2023 19:54</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.06</v>
+        <v>3.54</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>26/08/2023 18:05</t>
+          <t>26/08/2023 19:58</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>6.27</v>
+        <v>5.09</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>6.67</v>
+        <v>6.07</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>26/08/2023 18:05</t>
+          <t>26/08/2023 19:58</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-arsenal-tivat/OIyNQKlH/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-rudar/6u2b7Wmd/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.14</v>
+        <v>1.48</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>26/08/2023 19:58</t>
+          <t>26/08/2023 18:05</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.23</v>
+        <v>4.1</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>2.89</v>
+        <v>4.06</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>26/08/2023 19:25</t>
+          <t>26/08/2023 18:05</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.3</v>
+        <v>6.27</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.28</v>
+        <v>6.67</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>26/08/2023 19:58</t>
+          <t>26/08/2023 18:05</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-jedinstvo/6ssIR0ZA/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-arsenal-tivat/OIyNQKlH/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.57</v>
+        <v>2.14</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>26/08/2023 19:54</t>
+          <t>26/08/2023 19:58</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.5</v>
+        <v>3.23</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,32 +3188,32 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.54</v>
+        <v>2.89</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
+          <t>26/08/2023 19:25</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>25/08/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
           <t>26/08/2023 19:58</t>
         </is>
       </c>
-      <c r="R30" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>25/08/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>26/08/2023 19:58</t>
-        </is>
-      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-rudar/6u2b7Wmd/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-jedinstvo/6ssIR0ZA/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mladost DG</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.8</v>
+        <v>3.02</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:06</t>
+          <t>16/09/2023 19:29</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.25</v>
+        <v>2.91</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.41</v>
+        <v>2.95</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:06</t>
+          <t>16/09/2023 18:58</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.02</v>
+        <v>3.43</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:06</t>
+          <t>16/09/2023 19:29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-jedinstvo/88OTMBmq/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-arsenal-tivat/naNXLV2k/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Mladost DG</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.02</v>
+        <v>1.8</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>16/09/2023 19:29</t>
+          <t>16/09/2023 19:06</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2.91</v>
+        <v>3.25</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2.95</v>
+        <v>3.41</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>16/09/2023 18:58</t>
+          <t>16/09/2023 19:06</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.43</v>
+        <v>4.02</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>16/09/2023 19:29</t>
+          <t>16/09/2023 19:06</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-arsenal-tivat/naNXLV2k/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-jedinstvo/88OTMBmq/</t>
         </is>
       </c>
     </row>
@@ -6986,6 +6986,282 @@
       <c r="V71" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-mladost-dg/lvEb1bMb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45235.5625</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Arsenal Tivat</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>05/11/2023 06:36</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>05/11/2023 06:36</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>05/11/2023 06:36</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-buducnost/GQFj3Kin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45235.5625</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Decic</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:24</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:24</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:11</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-decic/UkVe0Iy5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Jedinstvo</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Mornar Bar</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:40</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:40</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:40</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-mornar-bar/2NBn40xt/</t>
         </is>
       </c>
     </row>

--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Mladost DG</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>1.83</v>
+        <v>2.77</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.9</v>
+        <v>3.71</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>07/10/2023 18:33</t>
+          <t>07/10/2023 18:54</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.04</v>
+        <v>2.78</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.08</v>
+        <v>2.77</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>07/10/2023 18:33</t>
+          <t>07/10/2023 18:54</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.16</v>
+        <v>2.54</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.53</v>
+        <v>2.27</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>07/10/2023 18:33</t>
+          <t>07/10/2023 18:54</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-mladost-dg/nZwsm81l/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-decic/fawonSGf/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Mladost DG</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.77</v>
+        <v>1.83</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.71</v>
+        <v>1.9</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>07/10/2023 18:54</t>
+          <t>07/10/2023 18:33</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2.78</v>
+        <v>3.04</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.77</v>
+        <v>3.08</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>07/10/2023 18:54</t>
+          <t>07/10/2023 18:33</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.54</v>
+        <v>4.16</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.27</v>
+        <v>4.53</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>07/10/2023 18:54</t>
+          <t>07/10/2023 18:33</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-decic/fawonSGf/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-mladost-dg/nZwsm81l/</t>
         </is>
       </c>
     </row>
@@ -7262,6 +7262,98 @@
       <c r="V74" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-mornar-bar/2NBn40xt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45235.64583333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sutjeska</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Petrovac</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>04/11/2023 03:43</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>04/11/2023 22:30</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>04/11/2023 03:43</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>04/11/2023 22:30</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>04/11/2023 03:43</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>04/11/2023 22:30</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-petrovac/AmFf2v7h/</t>
         </is>
       </c>
     </row>

--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>1.72</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.23</v>
+        <v>1.61</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>22/07/2023 20:27</t>
+          <t>22/07/2023 19:23</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.88</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2.96</v>
+        <v>3.72</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>22/07/2023 20:27</t>
+          <t>22/07/2023 19:23</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.86</v>
+        <v>4.2</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.51</v>
+        <v>5.55</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>22/07/2023 20:27</t>
+          <t>22/07/2023 19:23</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-mornar-bar/nZ1KQaXJ/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-jedinstvo/Ug5qLwes/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.72</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.61</v>
+        <v>2.23</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>22/07/2023 19:23</t>
+          <t>22/07/2023 20:27</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.72</v>
+        <v>2.96</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>22/07/2023 19:23</t>
+          <t>22/07/2023 20:27</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.2</v>
+        <v>2.86</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>5.55</v>
+        <v>3.51</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>22/07/2023 19:23</t>
+          <t>22/07/2023 20:27</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-jedinstvo/Ug5qLwes/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-mornar-bar/nZ1KQaXJ/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Mladost DG</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.77</v>
+        <v>1.83</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.71</v>
+        <v>1.9</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>07/10/2023 18:54</t>
+          <t>07/10/2023 18:33</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>2.78</v>
+        <v>3.04</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2.77</v>
+        <v>3.08</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>07/10/2023 18:54</t>
+          <t>07/10/2023 18:33</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.54</v>
+        <v>4.16</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.27</v>
+        <v>4.53</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>07/10/2023 18:54</t>
+          <t>07/10/2023 18:33</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-decic/fawonSGf/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-mladost-dg/nZwsm81l/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Mladost DG</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>1.83</v>
+        <v>2.77</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.9</v>
+        <v>3.71</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>07/10/2023 18:33</t>
+          <t>07/10/2023 18:54</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.04</v>
+        <v>2.78</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.08</v>
+        <v>2.77</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>07/10/2023 18:33</t>
+          <t>07/10/2023 18:54</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.16</v>
+        <v>2.54</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.53</v>
+        <v>2.27</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>07/10/2023 18:33</t>
+          <t>07/10/2023 18:54</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-mladost-dg/nZwsm81l/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-decic/fawonSGf/</t>
         </is>
       </c>
     </row>
@@ -7354,6 +7354,374 @@
       <c r="V75" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-petrovac/AmFf2v7h/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Mladost DG</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Sutjeska</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:43</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:43</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:43</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-sutjeska/G6X7cGLN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Jedinstvo</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:45</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jedinstvo/0v9vhfqo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Petrovac</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Arsenal Tivat</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:43</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:43</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:43</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-arsenal-tivat/bVMCdzyU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45241.77083333334</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Decic</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Jezero</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>10/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>10/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>10/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-jezero/23T3bd6H/</t>
         </is>
       </c>
     </row>

--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Arsenal Tivat</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v>1.84</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>11/08/2023 17:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.64</v>
+        <v>1.67</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 20:14</t>
+          <t>12/08/2023 20:25</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.87</v>
+        <v>3.27</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>11/08/2023 17:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.89</v>
+        <v>3.68</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 18:34</t>
+          <t>12/08/2023 20:25</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.03</v>
+        <v>3.91</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>11/08/2023 17:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.89</v>
+        <v>5.01</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 20:14</t>
+          <t>12/08/2023 20:25</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-arsenal-tivat/v7NzFNk5/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-rudar/UeGmCLZN/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>11/08/2023 17:42</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.67</v>
+        <v>2.64</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 20:25</t>
+          <t>12/08/2023 20:14</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.27</v>
+        <v>2.87</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>11/08/2023 17:42</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.68</v>
+        <v>2.89</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 20:25</t>
+          <t>12/08/2023 18:34</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.91</v>
+        <v>3.03</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>11/08/2023 17:42</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>5.01</v>
+        <v>2.89</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 20:25</t>
+          <t>12/08/2023 20:14</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-rudar/UeGmCLZN/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-arsenal-tivat/v7NzFNk5/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Mladost DG</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Jezero</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.48</v>
+        <v>2.64</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>12/08/2023 09:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.47</v>
+        <v>3.16</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:59</t>
+          <t>13/08/2023 19:49</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.83</v>
+        <v>2.99</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>12/08/2023 09:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.91</v>
+        <v>2.89</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:59</t>
+          <t>13/08/2023 19:39</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>5.58</v>
+        <v>2.75</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>12/08/2023 09:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>7.31</v>
+        <v>2.36</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:59</t>
+          <t>13/08/2023 19:49</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jezero/nXQrD1KH/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-decic/8nFiBukU/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mladost DG</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,63 +2145,63 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.64</v>
+        <v>5.84</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.16</v>
+        <v>4.16</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:49</t>
+          <t>13/08/2023 19:20</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.99</v>
+        <v>3.85</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2.89</v>
+        <v>3.62</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:39</t>
+          <t>13/08/2023 19:20</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.75</v>
+        <v>1.48</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.36</v>
+        <v>1.8</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:49</t>
+          <t>13/08/2023 19:20</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-decic/8nFiBukU/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-sutjeska/YTMvEs5B/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Jezero</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>5.84</v>
+        <v>1.48</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4.16</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.62</v>
+        <v>3.91</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.48</v>
+        <v>5.58</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.8</v>
+        <v>7.31</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-sutjeska/YTMvEs5B/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jezero/nXQrD1KH/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.57</v>
+        <v>2.14</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>26/08/2023 19:54</t>
+          <t>26/08/2023 19:58</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.5</v>
+        <v>3.23</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,32 +3004,32 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.54</v>
+        <v>2.89</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
+          <t>26/08/2023 19:25</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>25/08/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
           <t>26/08/2023 19:58</t>
         </is>
       </c>
-      <c r="R28" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>25/08/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T28" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>26/08/2023 19:58</t>
-        </is>
-      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-rudar/6u2b7Wmd/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-jedinstvo/6ssIR0ZA/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>26/08/2023 18:05</t>
+          <t>26/08/2023 19:54</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.06</v>
+        <v>3.54</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>26/08/2023 18:05</t>
+          <t>26/08/2023 19:58</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>6.27</v>
+        <v>5.09</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>6.67</v>
+        <v>6.07</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>26/08/2023 18:05</t>
+          <t>26/08/2023 19:58</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-arsenal-tivat/OIyNQKlH/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-rudar/6u2b7Wmd/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.14</v>
+        <v>1.48</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>26/08/2023 19:58</t>
+          <t>26/08/2023 18:05</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.23</v>
+        <v>4.1</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>2.89</v>
+        <v>4.06</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>26/08/2023 19:25</t>
+          <t>26/08/2023 18:05</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.3</v>
+        <v>6.27</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.28</v>
+        <v>6.67</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>26/08/2023 19:58</t>
+          <t>26/08/2023 18:05</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-jedinstvo/6ssIR0ZA/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-arsenal-tivat/OIyNQKlH/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mladost DG</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.02</v>
+        <v>1.8</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:29</t>
+          <t>16/09/2023 19:06</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2.91</v>
+        <v>3.25</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2.95</v>
+        <v>3.41</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>16/09/2023 18:58</t>
+          <t>16/09/2023 19:06</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.43</v>
+        <v>4.02</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>16/09/2023 19:29</t>
+          <t>16/09/2023 19:06</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-arsenal-tivat/naNXLV2k/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-jedinstvo/88OTMBmq/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mladost DG</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.8</v>
+        <v>3.02</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>16/09/2023 19:06</t>
+          <t>16/09/2023 19:29</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.25</v>
+        <v>2.91</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.41</v>
+        <v>2.95</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>16/09/2023 19:06</t>
+          <t>16/09/2023 18:58</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.02</v>
+        <v>3.43</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>16/09/2023 19:06</t>
+          <t>16/09/2023 19:29</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-jedinstvo/88OTMBmq/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-arsenal-tivat/naNXLV2k/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Decic</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
       <c r="J41" t="n">
-        <v>3.05</v>
+        <v>1.34</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3.73</v>
+        <v>1.44</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:51</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.82</v>
+        <v>4.52</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.92</v>
+        <v>4.67</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:51</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.32</v>
+        <v>7.27</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.17</v>
+        <v>6.14</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:51</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-decic/2szPtXvF/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-rudar/KIpKsDP8/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Decic</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Rudar</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.34</v>
+        <v>3.05</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.44</v>
+        <v>3.73</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:51</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>4.52</v>
+        <v>2.82</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.67</v>
+        <v>2.92</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:51</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>7.27</v>
+        <v>2.32</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>6.14</v>
+        <v>2.17</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:51</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-rudar/KIpKsDP8/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-decic/2szPtXvF/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>3.11</v>
+        <v>1.41</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.82</v>
+        <v>1.51</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.92</v>
+        <v>4.18</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2.79</v>
+        <v>3.88</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.22</v>
+        <v>7.18</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.79</v>
+        <v>6.55</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-buducnost/212AhUwR/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-mornar-bar/Gp0beWg8/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Mornar Bar</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
       <c r="J54" t="n">
-        <v>1.41</v>
+        <v>3.11</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.51</v>
+        <v>2.82</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.18</v>
+        <v>2.92</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.88</v>
+        <v>2.79</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>7.18</v>
+        <v>2.22</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>6.55</v>
+        <v>2.79</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-mornar-bar/Gp0beWg8/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-buducnost/212AhUwR/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.29</v>
+        <v>1.29</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.72</v>
+        <v>1.42</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>2.75</v>
+        <v>4.78</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>2.49</v>
+        <v>4.4</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.2</v>
+        <v>7.52</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.32</v>
+        <v>7.13</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-mornar-bar/rLJu89wE/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-jedinstvo/MBIq7ThK/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,14 +6193,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>1.29</v>
+        <v>2.29</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.42</v>
+        <v>2.72</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.78</v>
+        <v>2.75</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.4</v>
+        <v>2.49</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>7.52</v>
+        <v>3.2</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>7.13</v>
+        <v>3.32</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-jedinstvo/MBIq7ThK/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-mornar-bar/rLJu89wE/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.29</v>
+        <v>2.05</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.29</v>
+        <v>1.97</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>11/11/2023 15:42</t>
+          <t>11/11/2023 15:43</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.83</v>
+        <v>2.98</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>5.32</v>
+        <v>3.06</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>11/11/2023 15:45</t>
+          <t>11/11/2023 15:43</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>7.5</v>
+        <v>3.43</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>8.960000000000001</v>
+        <v>4.21</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>11/11/2023 15:42</t>
+          <t>11/11/2023 15:43</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jedinstvo/0v9vhfqo/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-arsenal-tivat/bVMCdzyU/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>2.05</v>
+        <v>1.29</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.97</v>
+        <v>1.29</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>11/11/2023 15:43</t>
+          <t>11/11/2023 15:42</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>2.98</v>
+        <v>4.83</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.06</v>
+        <v>5.32</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>11/11/2023 15:43</t>
+          <t>11/11/2023 15:45</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.43</v>
+        <v>7.5</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.21</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>11/11/2023 15:43</t>
+          <t>11/11/2023 15:42</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-arsenal-tivat/bVMCdzyU/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jedinstvo/0v9vhfqo/</t>
         </is>
       </c>
     </row>
@@ -7722,6 +7722,98 @@
       <c r="V79" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-jezero/23T3bd6H/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45243.66666666666</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Mornar Bar</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:30</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:30</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:32</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:32</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:32</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:32</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-rudar/8tUaaxiB/</t>
         </is>
       </c>
     </row>

--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.72</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.61</v>
+        <v>2.23</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>22/07/2023 19:23</t>
+          <t>22/07/2023 20:27</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.72</v>
+        <v>2.96</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>22/07/2023 19:23</t>
+          <t>22/07/2023 20:27</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.2</v>
+        <v>2.86</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>5.55</v>
+        <v>3.51</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>22/07/2023 19:23</t>
+          <t>22/07/2023 20:27</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-jedinstvo/Ug5qLwes/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-mornar-bar/nZ1KQaXJ/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>1.72</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.23</v>
+        <v>1.61</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>22/07/2023 20:27</t>
+          <t>22/07/2023 19:23</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.88</v>
+        <v>3.35</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2.96</v>
+        <v>3.72</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>22/07/2023 20:27</t>
+          <t>22/07/2023 19:23</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.86</v>
+        <v>4.2</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.51</v>
+        <v>5.55</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>22/07/2023 20:27</t>
+          <t>22/07/2023 19:23</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-mornar-bar/nZ1KQaXJ/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-jedinstvo/Ug5qLwes/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mladost DG</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Jezero</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.64</v>
+        <v>1.48</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.16</v>
+        <v>1.47</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:49</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.99</v>
+        <v>3.83</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2.89</v>
+        <v>3.91</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:39</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.75</v>
+        <v>5.58</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.36</v>
+        <v>7.31</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:49</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-decic/8nFiBukU/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jezero/nXQrD1KH/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Mladost DG</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,63 +2145,63 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>5.84</v>
+        <v>2.64</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4.16</v>
+        <v>3.16</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:49</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.85</v>
+        <v>2.99</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.62</v>
+        <v>2.89</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:39</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.48</v>
+        <v>2.75</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.8</v>
+        <v>2.36</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:49</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-sutjeska/YTMvEs5B/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-decic/8nFiBukU/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Jezero</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>12/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>13/08/2023 19:20</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>12/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>13/08/2023 19:20</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>1.48</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>12/08/2023 09:12</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>13/08/2023 19:59</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>12/08/2023 09:12</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>13/08/2023 19:59</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>5.58</v>
-      </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>12/08/2023 09:12</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>7.31</v>
+        <v>1.8</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>13/08/2023 19:59</t>
+          <t>13/08/2023 19:20</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jezero/nXQrD1KH/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-sutjeska/YTMvEs5B/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.06</v>
+        <v>2.53</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>02/09/2023 06:12</t>
+          <t>02/09/2023 05:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.43</v>
+        <v>2.66</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>03/09/2023 16:46</t>
+          <t>03/09/2023 16:41</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>02/09/2023 06:12</t>
+          <t>02/09/2023 05:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>2.98</v>
+        <v>2.87</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>03/09/2023 16:11</t>
+          <t>03/09/2023 16:41</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.31</v>
+        <v>2.73</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>02/09/2023 06:12</t>
+          <t>02/09/2023 05:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.09</v>
+        <v>2.88</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>03/09/2023 16:46</t>
+          <t>03/09/2023 16:41</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-mornar-bar/8ptsWFQd/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-petrovac/f1rgTDAF/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.53</v>
+        <v>3.06</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>02/09/2023 05:42</t>
+          <t>02/09/2023 06:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.66</v>
+        <v>2.43</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>03/09/2023 16:41</t>
+          <t>03/09/2023 16:46</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>02/09/2023 05:42</t>
+          <t>02/09/2023 06:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>2.87</v>
+        <v>2.98</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>03/09/2023 16:41</t>
+          <t>03/09/2023 16:11</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.73</v>
+        <v>2.31</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>02/09/2023 05:42</t>
+          <t>02/09/2023 06:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>03/09/2023 16:41</t>
+          <t>03/09/2023 16:46</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-petrovac/f1rgTDAF/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-mornar-bar/8ptsWFQd/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Decic</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Rudar</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
       <c r="J41" t="n">
-        <v>1.34</v>
+        <v>3.05</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.44</v>
+        <v>3.73</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:51</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.52</v>
+        <v>2.82</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.67</v>
+        <v>2.92</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:51</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>7.27</v>
+        <v>2.32</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>6.14</v>
+        <v>2.17</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:51</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-rudar/KIpKsDP8/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-decic/2szPtXvF/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Decic</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
       <c r="J42" t="n">
-        <v>3.05</v>
+        <v>1.34</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.73</v>
+        <v>1.44</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:51</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2.82</v>
+        <v>4.52</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>2.92</v>
+        <v>4.67</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:51</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.32</v>
+        <v>7.27</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.17</v>
+        <v>6.14</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:51</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-decic/2szPtXvF/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-rudar/KIpKsDP8/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Mornar Bar</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
       <c r="J52" t="n">
-        <v>1.41</v>
+        <v>3.11</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.51</v>
+        <v>2.82</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.18</v>
+        <v>2.92</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.88</v>
+        <v>2.79</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>7.18</v>
+        <v>2.22</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>6.55</v>
+        <v>2.79</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-mornar-bar/Gp0beWg8/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-buducnost/212AhUwR/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>3.11</v>
+        <v>1.41</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.82</v>
+        <v>1.51</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.92</v>
+        <v>4.18</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2.79</v>
+        <v>3.88</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.22</v>
+        <v>7.18</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.79</v>
+        <v>6.55</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-buducnost/212AhUwR/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-mornar-bar/Gp0beWg8/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.29</v>
+        <v>2.77</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.42</v>
+        <v>2.7</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:44</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.78</v>
+        <v>2.88</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>4.4</v>
+        <v>2.69</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:44</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>7.52</v>
+        <v>2.46</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>7.13</v>
+        <v>3.04</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:44</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-jedinstvo/MBIq7ThK/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-petrovac/tdaG17Gs/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.77</v>
+        <v>1.29</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.7</v>
+        <v>1.42</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>21/10/2023 14:44</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2.88</v>
+        <v>4.78</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2.69</v>
+        <v>4.4</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>21/10/2023 14:44</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.46</v>
+        <v>7.52</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.04</v>
+        <v>7.13</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>21/10/2023 14:44</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-petrovac/tdaG17Gs/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-jedinstvo/MBIq7ThK/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>4.24</v>
+        <v>4.05</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5.09</v>
+        <v>3.94</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>05/11/2023 06:36</t>
+          <t>05/11/2023 13:24</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.29</v>
+        <v>3.2</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.75</v>
+        <v>3.06</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>05/11/2023 06:36</t>
+          <t>05/11/2023 13:24</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>1.63</v>
+        <v>2.04</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>05/11/2023 06:36</t>
+          <t>05/11/2023 13:11</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-buducnost/GQFj3Kin/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-decic/UkVe0Iy5/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>4.05</v>
+        <v>4.24</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3.94</v>
+        <v>5.09</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>05/11/2023 13:24</t>
+          <t>05/11/2023 06:36</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.2</v>
+        <v>3.29</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.06</v>
+        <v>3.75</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>05/11/2023 13:24</t>
+          <t>05/11/2023 06:36</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.04</v>
+        <v>1.63</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>05/11/2023 13:11</t>
+          <t>05/11/2023 06:36</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-decic/UkVe0Iy5/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-buducnost/GQFj3Kin/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mladost DG</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>4.61</v>
+        <v>1.29</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>6.15</v>
+        <v>1.29</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>11/11/2023 15:43</t>
+          <t>11/11/2023 15:42</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.5</v>
+        <v>4.83</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.73</v>
+        <v>5.32</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>11/11/2023 15:43</t>
+          <t>11/11/2023 15:45</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.63</v>
+        <v>7.5</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.56</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>11/11/2023 15:43</t>
+          <t>11/11/2023 15:42</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-sutjeska/G6X7cGLN/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jedinstvo/0v9vhfqo/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mladost DG</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.05</v>
+        <v>4.61</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.97</v>
+        <v>6.15</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.06</v>
+        <v>3.73</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.43</v>
+        <v>1.63</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.21</v>
+        <v>1.56</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-arsenal-tivat/bVMCdzyU/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-sutjeska/G6X7cGLN/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.29</v>
+        <v>2.05</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.29</v>
+        <v>1.97</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>11/11/2023 15:42</t>
+          <t>11/11/2023 15:43</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.83</v>
+        <v>2.98</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>5.32</v>
+        <v>3.06</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>11/11/2023 15:45</t>
+          <t>11/11/2023 15:43</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>7.5</v>
+        <v>3.43</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>8.960000000000001</v>
+        <v>4.21</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>11/11/2023 15:42</t>
+          <t>11/11/2023 15:43</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jedinstvo/0v9vhfqo/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-arsenal-tivat/bVMCdzyU/</t>
         </is>
       </c>
     </row>
@@ -7814,6 +7814,282 @@
       <c r="V80" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-rudar/8tUaaxiB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45256.54166666666</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Arsenal Tivat</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Mladost DG</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-mladost-dg/A9jVEHjb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45256.625</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>4</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Mornar Bar</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:36</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:36</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:36</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-mornar-bar/lf2MGwMo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45256.625</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sutjeska</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Decic</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-decic/MqfZDy64/</t>
         </is>
       </c>
     </row>

--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Mladost DG</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Jezero</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.48</v>
+        <v>2.64</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>12/08/2023 09:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.47</v>
+        <v>3.16</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:59</t>
+          <t>13/08/2023 19:49</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.83</v>
+        <v>2.99</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>12/08/2023 09:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.91</v>
+        <v>2.89</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:59</t>
+          <t>13/08/2023 19:39</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>5.58</v>
+        <v>2.75</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>12/08/2023 09:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>7.31</v>
+        <v>2.36</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:59</t>
+          <t>13/08/2023 19:49</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jezero/nXQrD1KH/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-decic/8nFiBukU/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mladost DG</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,63 +2145,63 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.64</v>
+        <v>5.84</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.16</v>
+        <v>4.16</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:49</t>
+          <t>13/08/2023 19:20</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.99</v>
+        <v>3.85</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2.89</v>
+        <v>3.62</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:39</t>
+          <t>13/08/2023 19:20</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.75</v>
+        <v>1.48</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.36</v>
+        <v>1.8</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:49</t>
+          <t>13/08/2023 19:20</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-decic/8nFiBukU/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-sutjeska/YTMvEs5B/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Jezero</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>5.84</v>
+        <v>1.48</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4.16</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.62</v>
+        <v>3.91</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.48</v>
+        <v>5.58</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.8</v>
+        <v>7.31</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-sutjeska/YTMvEs5B/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jezero/nXQrD1KH/</t>
         </is>
       </c>
     </row>
@@ -8090,6 +8090,98 @@
       <c r="V83" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-decic/MqfZDy64/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45257.5625</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Jezero</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:44</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:44</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:44</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:44</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:44</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:44</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-rudar/G6gwDeLA/</t>
         </is>
       </c>
     </row>

--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Jezero</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>3.11</v>
+        <v>2.08</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.82</v>
+        <v>2.41</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:50</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:50</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.22</v>
+        <v>3.55</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.79</v>
+        <v>3.3</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:50</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-buducnost/212AhUwR/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-arsenal-tivat/fya2fj9E/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Jezero</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.08</v>
+        <v>1.41</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.41</v>
+        <v>1.51</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 17:50</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.84</v>
+        <v>4.18</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>2.84</v>
+        <v>3.88</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 17:50</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.55</v>
+        <v>7.18</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.3</v>
+        <v>6.55</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 17:50</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-arsenal-tivat/fya2fj9E/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-mornar-bar/Gp0beWg8/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Mornar Bar</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
       <c r="J54" t="n">
-        <v>1.41</v>
+        <v>3.11</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.51</v>
+        <v>2.82</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.18</v>
+        <v>2.92</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.88</v>
+        <v>2.79</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>7.18</v>
+        <v>2.22</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>6.55</v>
+        <v>2.79</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-mornar-bar/Gp0beWg8/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-buducnost/212AhUwR/</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -6101,14 +6101,14 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>1.29</v>
+        <v>2.29</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.42</v>
+        <v>2.72</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.78</v>
+        <v>2.75</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.4</v>
+        <v>2.49</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>7.52</v>
+        <v>3.2</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>7.13</v>
+        <v>3.32</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-jedinstvo/MBIq7ThK/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-mornar-bar/rLJu89wE/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,14 +6193,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.29</v>
+        <v>1.29</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.72</v>
+        <v>1.42</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.75</v>
+        <v>4.78</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2.49</v>
+        <v>4.4</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.2</v>
+        <v>7.52</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.32</v>
+        <v>7.13</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-mornar-bar/rLJu89wE/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-jedinstvo/MBIq7ThK/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>4.05</v>
+        <v>4.24</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3.94</v>
+        <v>5.09</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>05/11/2023 13:24</t>
+          <t>05/11/2023 06:36</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.2</v>
+        <v>3.29</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.06</v>
+        <v>3.75</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>05/11/2023 13:24</t>
+          <t>05/11/2023 06:36</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.04</v>
+        <v>1.63</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>05/11/2023 13:11</t>
+          <t>05/11/2023 06:36</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-decic/UkVe0Iy5/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-buducnost/GQFj3Kin/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>4.24</v>
+        <v>4.05</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>5.09</v>
+        <v>3.94</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>05/11/2023 06:36</t>
+          <t>05/11/2023 13:24</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.29</v>
+        <v>3.2</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.75</v>
+        <v>3.06</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>05/11/2023 06:36</t>
+          <t>05/11/2023 13:24</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1.63</v>
+        <v>2.04</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>05/11/2023 06:36</t>
+          <t>05/11/2023 13:11</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-buducnost/GQFj3Kin/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-decic/UkVe0Iy5/</t>
         </is>
       </c>
     </row>
@@ -8182,6 +8182,98 @@
       <c r="V84" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-rudar/G6gwDeLA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45258.54166666666</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Jedinstvo</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Petrovac</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>28/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>28/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>28/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-petrovac/Sp1QFcyh/</t>
         </is>
       </c>
     </row>

--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Jezero</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.46</v>
+        <v>2.07</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.65</v>
+        <v>1.69</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20/08/2023 19:46</t>
+          <t>20/08/2023 18:23</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>2.99</v>
+        <v>3.19</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20/08/2023 19:46</t>
+          <t>20/08/2023 18:23</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.8</v>
+        <v>3.57</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.78</v>
+        <v>6.08</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20/08/2023 19:46</t>
+          <t>20/08/2023 18:23</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-petrovac/KQv6U2kh/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-mornar-bar/bBjcWOKu/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Jezero</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.07</v>
+        <v>2.46</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.69</v>
+        <v>2.65</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>20/08/2023 18:23</t>
+          <t>20/08/2023 19:46</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.19</v>
+        <v>2.99</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>20/08/2023 18:23</t>
+          <t>20/08/2023 19:46</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.57</v>
+        <v>2.8</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>6.08</v>
+        <v>2.78</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20/08/2023 18:23</t>
+          <t>20/08/2023 19:46</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-mornar-bar/bBjcWOKu/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-petrovac/KQv6U2kh/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Decic</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
       <c r="J41" t="n">
-        <v>3.05</v>
+        <v>1.34</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3.73</v>
+        <v>1.44</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:51</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.82</v>
+        <v>4.52</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.92</v>
+        <v>4.67</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:51</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.32</v>
+        <v>7.27</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.17</v>
+        <v>6.14</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:51</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-decic/2szPtXvF/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-rudar/KIpKsDP8/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Decic</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Rudar</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.34</v>
+        <v>3.05</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.44</v>
+        <v>3.73</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:51</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>4.52</v>
+        <v>2.82</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.67</v>
+        <v>2.92</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:51</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>7.27</v>
+        <v>2.32</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>6.14</v>
+        <v>2.17</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:51</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-rudar/KIpKsDP8/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-decic/2szPtXvF/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Jezero</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.08</v>
+        <v>3.11</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.41</v>
+        <v>2.82</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:50</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:50</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.55</v>
+        <v>2.22</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.3</v>
+        <v>2.79</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 17:50</t>
+          <t>01/10/2023 17:39</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-arsenal-tivat/fya2fj9E/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-buducnost/212AhUwR/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Jezero</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.41</v>
+        <v>2.08</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.51</v>
+        <v>2.41</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:50</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.18</v>
+        <v>2.84</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.88</v>
+        <v>2.84</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:50</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>7.18</v>
+        <v>3.55</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>01/10/2023 12:43</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>6.55</v>
+        <v>3.3</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 17:46</t>
+          <t>01/10/2023 17:50</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-mornar-bar/Gp0beWg8/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-arsenal-tivat/fya2fj9E/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>3.11</v>
+        <v>1.41</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.82</v>
+        <v>1.51</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.92</v>
+        <v>4.18</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2.79</v>
+        <v>3.88</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.22</v>
+        <v>7.18</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>01/10/2023 12:43</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.79</v>
+        <v>6.55</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 17:39</t>
+          <t>01/10/2023 17:46</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-buducnost/212AhUwR/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-mornar-bar/Gp0beWg8/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.77</v>
+        <v>2.29</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:44</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>2.69</v>
+        <v>2.49</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:44</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.46</v>
+        <v>3.2</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.04</v>
+        <v>3.32</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>21/10/2023 14:44</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-petrovac/tdaG17Gs/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-mornar-bar/rLJu89wE/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.29</v>
+        <v>2.77</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:44</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2.49</v>
+        <v>2.69</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:44</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.2</v>
+        <v>2.46</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.32</v>
+        <v>3.04</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:44</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-mornar-bar/rLJu89wE/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-petrovac/tdaG17Gs/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Mladost DG</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>4.61</v>
+        <v>2.05</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>6.15</v>
+        <v>1.97</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.5</v>
+        <v>2.98</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.73</v>
+        <v>3.06</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.63</v>
+        <v>3.43</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.56</v>
+        <v>4.21</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-sutjeska/G6X7cGLN/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-arsenal-tivat/bVMCdzyU/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mladost DG</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.05</v>
+        <v>4.61</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.97</v>
+        <v>6.15</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.06</v>
+        <v>3.73</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.43</v>
+        <v>1.63</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.21</v>
+        <v>1.56</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-arsenal-tivat/bVMCdzyU/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-sutjeska/G6X7cGLN/</t>
         </is>
       </c>
     </row>
@@ -8274,6 +8274,282 @@
       <c r="V85" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-petrovac/Sp1QFcyh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45262.54166666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Decic</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Arsenal Tivat</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-arsenal-tivat/jPojAg5T/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45262.54166666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Sutjeska</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:40</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:54</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:54</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-sutjeska/CYnnBZkN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Mladost DG</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Jedinstvo</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:37</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:37</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:37</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-jedinstvo/84YH5DDp/</t>
         </is>
       </c>
     </row>

--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8553,6 +8553,98 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45262.64583333334</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Petrovac</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:43</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:13</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:43</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:13</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:43</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:13</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-buducnost/M7xM4XSj/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mladost DG</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Jezero</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.64</v>
+        <v>1.48</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.16</v>
+        <v>1.47</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:49</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.99</v>
+        <v>3.83</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2.89</v>
+        <v>3.91</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:39</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.75</v>
+        <v>5.58</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.36</v>
+        <v>7.31</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:49</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-decic/8nFiBukU/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jezero/nXQrD1KH/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Mladost DG</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Jezero</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.48</v>
+        <v>2.64</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>12/08/2023 09:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>3.16</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>13/08/2023 19:59</t>
+          <t>13/08/2023 19:49</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.83</v>
+        <v>2.99</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>12/08/2023 09:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.91</v>
+        <v>2.89</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>13/08/2023 19:59</t>
+          <t>13/08/2023 19:39</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>5.58</v>
+        <v>2.75</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>12/08/2023 09:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>7.31</v>
+        <v>2.36</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>13/08/2023 19:59</t>
+          <t>13/08/2023 19:49</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jezero/nXQrD1KH/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-decic/8nFiBukU/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Jezero</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.07</v>
+        <v>2.46</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.69</v>
+        <v>2.65</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20/08/2023 18:23</t>
+          <t>20/08/2023 19:46</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.19</v>
+        <v>2.99</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20/08/2023 18:23</t>
+          <t>20/08/2023 19:46</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.57</v>
+        <v>2.8</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>6.08</v>
+        <v>2.78</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20/08/2023 18:23</t>
+          <t>20/08/2023 19:46</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-mornar-bar/bBjcWOKu/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-petrovac/KQv6U2kh/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Jezero</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.46</v>
+        <v>2.07</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.65</v>
+        <v>1.69</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>20/08/2023 19:46</t>
+          <t>20/08/2023 18:23</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2.99</v>
+        <v>3.19</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>20/08/2023 19:46</t>
+          <t>20/08/2023 18:23</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.8</v>
+        <v>3.57</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.78</v>
+        <v>6.08</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20/08/2023 19:46</t>
+          <t>20/08/2023 18:23</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-petrovac/KQv6U2kh/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-mornar-bar/bBjcWOKu/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Decic</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Rudar</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
       <c r="J41" t="n">
-        <v>1.34</v>
+        <v>3.05</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.44</v>
+        <v>3.73</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:51</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.52</v>
+        <v>2.82</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.67</v>
+        <v>2.92</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:51</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>7.27</v>
+        <v>2.32</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>6.14</v>
+        <v>2.17</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:51</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-rudar/KIpKsDP8/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-decic/2szPtXvF/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Decic</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
       <c r="J42" t="n">
-        <v>3.05</v>
+        <v>1.34</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.73</v>
+        <v>1.44</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:51</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2.82</v>
+        <v>4.52</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>2.92</v>
+        <v>4.67</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:51</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.32</v>
+        <v>7.27</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.17</v>
+        <v>6.14</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:51</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-decic/2szPtXvF/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-rudar/KIpKsDP8/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Jezero</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>3.17</v>
+        <v>1.46</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>5.37</v>
+        <v>1.54</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>27/09/2023 17:40</t>
+          <t>27/09/2023 17:31</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.97</v>
+        <v>3.81</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.52</v>
+        <v>3.92</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>27/09/2023 17:40</t>
+          <t>27/09/2023 17:31</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.16</v>
+        <v>5.94</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>1.66</v>
+        <v>6</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>27/09/2023 17:40</t>
+          <t>27/09/2023 17:43</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-decic/6FI7Y8ne/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-jezero/vTGFWnH7/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Jezero</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.46</v>
+        <v>3.17</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.54</v>
+        <v>5.37</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>27/09/2023 17:31</t>
+          <t>27/09/2023 17:40</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.81</v>
+        <v>2.97</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.92</v>
+        <v>3.52</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>27/09/2023 17:31</t>
+          <t>27/09/2023 17:40</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>5.94</v>
+        <v>2.16</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>6</v>
+        <v>1.66</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>27/09/2023 17:43</t>
+          <t>27/09/2023 17:40</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-jezero/vTGFWnH7/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-decic/6FI7Y8ne/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>4.24</v>
+        <v>4.05</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5.09</v>
+        <v>3.94</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>05/11/2023 06:36</t>
+          <t>05/11/2023 13:24</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.29</v>
+        <v>3.2</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.75</v>
+        <v>3.06</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>05/11/2023 06:36</t>
+          <t>05/11/2023 13:24</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>1.63</v>
+        <v>2.04</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>05/11/2023 06:36</t>
+          <t>05/11/2023 13:11</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-buducnost/GQFj3Kin/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-decic/UkVe0Iy5/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>4.05</v>
+        <v>4.24</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3.94</v>
+        <v>5.09</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>05/11/2023 13:24</t>
+          <t>05/11/2023 06:36</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.2</v>
+        <v>3.29</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.06</v>
+        <v>3.75</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>05/11/2023 13:24</t>
+          <t>05/11/2023 06:36</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.04</v>
+        <v>1.63</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>05/11/2023 13:11</t>
+          <t>05/11/2023 06:36</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-decic/UkVe0Iy5/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-buducnost/GQFj3Kin/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mladost DG</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.05</v>
+        <v>4.61</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.97</v>
+        <v>6.15</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.06</v>
+        <v>3.73</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.43</v>
+        <v>1.63</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.21</v>
+        <v>1.56</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-arsenal-tivat/bVMCdzyU/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-sutjeska/G6X7cGLN/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Mladost DG</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>4.61</v>
+        <v>2.05</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>6.15</v>
+        <v>1.97</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.5</v>
+        <v>2.98</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.73</v>
+        <v>3.06</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>1.63</v>
+        <v>3.43</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.56</v>
+        <v>4.21</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-sutjeska/G6X7cGLN/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-arsenal-tivat/bVMCdzyU/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.43</v>
+        <v>1.96</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.39</v>
+        <v>2.72</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>26/11/2023 14:36</t>
+          <t>26/11/2023 14:52</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.97</v>
+        <v>3.06</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.48</v>
+        <v>2.82</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>26/11/2023 14:36</t>
+          <t>26/11/2023 14:52</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>6.43</v>
+        <v>3.61</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>7.77</v>
+        <v>2.87</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>26/11/2023 14:36</t>
+          <t>26/11/2023 14:52</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-mornar-bar/lf2MGwMo/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-decic/MqfZDy64/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>1.96</v>
+        <v>1.43</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.72</v>
+        <v>1.39</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>26/11/2023 14:52</t>
+          <t>26/11/2023 14:36</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.06</v>
+        <v>3.97</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2.82</v>
+        <v>4.48</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>26/11/2023 14:52</t>
+          <t>26/11/2023 14:36</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.61</v>
+        <v>6.43</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.87</v>
+        <v>7.77</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>26/11/2023 14:52</t>
+          <t>26/11/2023 14:36</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-decic/MqfZDy64/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-mornar-bar/lf2MGwMo/</t>
         </is>
       </c>
     </row>
@@ -8642,6 +8642,558 @@
       <c r="V89" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-buducnost/M7xM4XSj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45264.625</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Mornar Bar</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Jezero</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>04/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>04/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>04/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-jezero/fchsCFzH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45269.54166666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Arsenal Tivat</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-arsenal-tivat/zVSFQEkA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45269.625</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Decic</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Jedinstvo</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:34</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:34</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:34</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:34</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:34</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:34</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-jedinstvo/dvUBRfz4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Petrovac</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Mornar Bar</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>08/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:38</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>08/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>08/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:38</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-mornar-bar/OCG4TG5i/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Mladost DG</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:54</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:54</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-buducnost/23F8SzLc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45270.625</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Jezero</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Sutjeska</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>09/12/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>09/12/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>09/12/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-sutjeska/IgIKPY4G/</t>
         </is>
       </c>
     </row>
